--- a/Documentation & Images/TablasDescripcionNicaise.xlsx
+++ b/Documentation & Images/TablasDescripcionNicaise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raphy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOCUMENTOS\GitHub\remerasRaphaDB\remerasRaphaDB\Documentation &amp; Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79350538-BF80-4331-9EA2-648A5627B322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595BB42-8C68-479E-B4E3-3EC89484337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{E4AFCE55-93F0-4786-8155-DF93AFEA3A13}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15720" xr2:uid="{E4AFCE55-93F0-4786-8155-DF93AFEA3A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="151">
   <si>
     <t>PK</t>
   </si>
@@ -358,13 +367,133 @@
   </si>
   <si>
     <t>Tabla en la que se registran las review</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Tabla Colores_elegidos_log</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>old_id_colores_e</t>
+  </si>
+  <si>
+    <t>old_id_color1</t>
+  </si>
+  <si>
+    <t>old_id_color2</t>
+  </si>
+  <si>
+    <t>old_id_color3</t>
+  </si>
+  <si>
+    <t>new_id_color1</t>
+  </si>
+  <si>
+    <t>new_id_color2</t>
+  </si>
+  <si>
+    <t>new_id_color3</t>
+  </si>
+  <si>
+    <t>Fecha y Hora en la que se ejecuta el trigger</t>
+  </si>
+  <si>
+    <t>"Usuario" de la DB que lo provoco USER()</t>
+  </si>
+  <si>
+    <t>Guarda la palabra "Update"</t>
+  </si>
+  <si>
+    <t>Guarda el id_colores_e que se cambio</t>
+  </si>
+  <si>
+    <t>id_color1 antiguo</t>
+  </si>
+  <si>
+    <t>id_color2 antiguo</t>
+  </si>
+  <si>
+    <t>id_color3 antiguo</t>
+  </si>
+  <si>
+    <t>id_color1 nuevo</t>
+  </si>
+  <si>
+    <t>id_color2 nuevo</t>
+  </si>
+  <si>
+    <t>Tabla en la que se registran los cambios en colores_elegidos existentes.</t>
+  </si>
+  <si>
+    <t>Tabla Pedidos_log</t>
+  </si>
+  <si>
+    <t>Tabla en la que se registra cuando se inserta un nuevo pedido</t>
+  </si>
+  <si>
+    <t>ID del pedido insertado</t>
+  </si>
+  <si>
+    <t>fecha_hora</t>
+  </si>
+  <si>
+    <t>DATE TIME</t>
+  </si>
+  <si>
+    <t>Usuario de la DB que lo provoco USER()</t>
+  </si>
+  <si>
+    <t>fecha y hora en la que se ejecuta el trigger</t>
+  </si>
+  <si>
+    <t>Tabla log_usuarios</t>
+  </si>
+  <si>
+    <t>ID del nuevo usuario</t>
+  </si>
+  <si>
+    <t>creacion</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Fecha y hora en el que se creo el usuario</t>
+  </si>
+  <si>
+    <t>Tabla Log_entrega_orden</t>
+  </si>
+  <si>
+    <t>ID de la orden entregada</t>
+  </si>
+  <si>
+    <t>Tabla en la que se registra cuando se inserta un nuevo usuario</t>
+  </si>
+  <si>
+    <t>Tabla en la que se registra cuando una orden se cambia a "entrgado"</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>DEFAULT "Entregad"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +525,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,11 +564,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,6 +678,102 @@
     <tableColumn id="5" xr3:uid="{A2322759-AD4F-4098-AD21-63AB3606B393}" name="UNIQUE"/>
     <tableColumn id="6" xr3:uid="{16FFCE2B-5C4B-410C-987F-5FD1EC3AFB0F}" name="LEN"/>
     <tableColumn id="7" xr3:uid="{24C21E8C-7B0C-40D2-8EAA-0E5A801711C3}" name="NOTES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5FAC354F-BDC7-4841-9516-3289CE2E3481}" name="Tabla1101119212223253" displayName="Tabla1101119212223253" ref="B114:H124" totalsRowShown="0">
+  <autoFilter ref="B114:H124" xr:uid="{5FAC354F-BDC7-4841-9516-3289CE2E3481}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F85EC86C-9EB1-4647-8275-92915956306B}" name="PK"/>
+    <tableColumn id="2" xr3:uid="{A61C4BAA-4993-4BDF-97EB-869C156830D0}" name="COLUMN"/>
+    <tableColumn id="3" xr3:uid="{2404DF0A-A4B7-48C1-BC5F-9EEB783E73E4}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{09781CE0-B5A8-47B4-BE2F-A63CA43B712B}" name="NOT NULL"/>
+    <tableColumn id="5" xr3:uid="{4093D16D-49C3-4E73-BAE7-FE2370AB5A4D}" name="UNIQUE"/>
+    <tableColumn id="6" xr3:uid="{8EB7C285-5DE5-4092-9037-EC2925F5A521}" name="LEN"/>
+    <tableColumn id="7" xr3:uid="{D1D6A48F-3C55-4C45-A298-E19F3362A2D2}" name="NOTES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6E4D234F-15B6-4DD8-8543-0881A3292084}" name="Tabla1101119212223255" displayName="Tabla1101119212223255" ref="B106:H109" totalsRowShown="0">
+  <autoFilter ref="B106:H109" xr:uid="{6E4D234F-15B6-4DD8-8543-0881A3292084}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E92F56CE-60AA-4BE3-8CE4-1C8D651FFF0A}" name="PK"/>
+    <tableColumn id="2" xr3:uid="{F7B7AF26-C22D-4D31-8E0D-1D50827AB4A3}" name="COLUMN"/>
+    <tableColumn id="3" xr3:uid="{EA7CB73E-119A-47F5-B7CE-537C89DE8BD6}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{6075B225-004D-43EA-9C4B-DA6D8AE0A85A}" name="NOT NULL"/>
+    <tableColumn id="5" xr3:uid="{4A7018DD-6357-4108-BCFD-835FFA81B28A}" name="UNIQUE"/>
+    <tableColumn id="6" xr3:uid="{3F07548A-3ABD-4CFF-BDDB-2282B80A8D2A}" name="LEN"/>
+    <tableColumn id="7" xr3:uid="{3461040A-BDA2-477B-B08F-22C26D7C2563}" name="NOTES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DA4FC9F4-10D8-487D-8777-C4B68E4200CE}" name="Tabla11011192122232556" displayName="Tabla11011192122232556" ref="B128:H130" totalsRowShown="0">
+  <autoFilter ref="B128:H130" xr:uid="{DA4FC9F4-10D8-487D-8777-C4B68E4200CE}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C3E4ACC8-D687-4E94-A45A-84E50182757F}" name="PK"/>
+    <tableColumn id="2" xr3:uid="{30269BD9-422C-41AE-B64C-1B925A13EBEF}" name="COLUMN"/>
+    <tableColumn id="3" xr3:uid="{8F61F7D5-C126-4F1A-AF24-6390A23A61EC}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{3FBF8ED4-B028-4406-A75F-F0C0F55A1273}" name="NOT NULL"/>
+    <tableColumn id="5" xr3:uid="{2BC48B1A-980D-4353-A1AF-C6305C2504C0}" name="UNIQUE"/>
+    <tableColumn id="6" xr3:uid="{32190970-41E5-4D7D-A5B3-9C0EE5A17138}" name="LEN"/>
+    <tableColumn id="7" xr3:uid="{6455B1A1-E79E-4408-AFEF-50567383BBA1}" name="NOTES"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{960B98C0-C2DD-44AD-A494-C459A36BB459}" name="Tabla110111921222325512" displayName="Tabla110111921222325512" ref="B134:H137">
+  <autoFilter ref="B134:H137" xr:uid="{960B98C0-C2DD-44AD-A494-C459A36BB459}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EBC9F04E-BDB4-422F-8720-6A3579CFCD94}" name="PK" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{C99B578E-3AA7-4C54-9CA6-0309D95BD16E}" name="COLUMN"/>
+    <tableColumn id="3" xr3:uid="{A49C2EA2-9470-499D-8517-2D4B7F420DD1}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{7F2849DB-EE0E-470A-AE5B-22C01F239C4D}" name="NOT NULL"/>
+    <tableColumn id="5" xr3:uid="{3B46F473-99D4-49CA-A54C-7D60E49FD800}" name="UNIQUE"/>
+    <tableColumn id="6" xr3:uid="{E66A3B88-05B3-4D02-A862-E250539B7D5B}" name="LEN"/>
+    <tableColumn id="7" xr3:uid="{78C937B8-8BFA-4107-956E-1BADDA6106A1}" name="NOTES" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A5F038-29D2-428D-9BE5-1B1D8254922D}">
-  <dimension ref="B2:H104"/>
+  <dimension ref="A2:J137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,8 +1279,8 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="59.28515625" customWidth="1"/>
   </cols>
@@ -2072,7 +2310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>23</v>
       </c>
@@ -2103,7 +2341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>43</v>
       </c>
@@ -2128,7 +2366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>44</v>
       </c>
@@ -2142,16 +2380,390 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H104" s="1"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>5</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109">
+        <v>255</v>
+      </c>
+      <c r="H109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" t="s">
+        <v>112</v>
+      </c>
+      <c r="H115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116">
+        <v>255</v>
+      </c>
+      <c r="H116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117">
+        <v>255</v>
+      </c>
+      <c r="H117" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>121</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>122</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" t="s">
+        <v>143</v>
+      </c>
+      <c r="H130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>142</v>
+      </c>
+      <c r="D136" t="s">
+        <v>143</v>
+      </c>
+      <c r="H136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="12">
+  <tableParts count="16">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2164,6 +2776,10 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>